--- a/Code/Results/Cases/Case_0_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_83/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.917680062720751</v>
+        <v>3.448290604152642</v>
       </c>
       <c r="D2">
-        <v>6.722994172031452</v>
+        <v>9.145498974178896</v>
       </c>
       <c r="E2">
-        <v>20.72476087292326</v>
+        <v>14.90729549833441</v>
       </c>
       <c r="F2">
-        <v>9.329681180882284</v>
+        <v>22.69786651950371</v>
       </c>
       <c r="G2">
-        <v>18.75024525196172</v>
+        <v>21.08608397561744</v>
       </c>
       <c r="H2">
-        <v>5.25263800121882</v>
+        <v>12.33454275493188</v>
       </c>
       <c r="I2">
-        <v>10.54199356853465</v>
+        <v>16.86886856337481</v>
       </c>
       <c r="J2">
-        <v>14.01463134388531</v>
+        <v>10.15345392877687</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>99.95418150214415</v>
+        <v>58.96029491922199</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.00852300437045</v>
+        <v>17.74769338902397</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.593140671021626</v>
+        <v>3.311900644384297</v>
       </c>
       <c r="D3">
-        <v>6.114676927333263</v>
+        <v>9.208199912639609</v>
       </c>
       <c r="E3">
-        <v>18.92957026337855</v>
+        <v>14.65333387160127</v>
       </c>
       <c r="F3">
-        <v>7.744118220707544</v>
+        <v>23.16121294231622</v>
       </c>
       <c r="G3">
-        <v>16.67108204372467</v>
+        <v>21.3898229122545</v>
       </c>
       <c r="H3">
-        <v>5.356812088303753</v>
+        <v>12.45924227866217</v>
       </c>
       <c r="I3">
-        <v>9.438819124538586</v>
+        <v>17.04477107235396</v>
       </c>
       <c r="J3">
-        <v>12.85630412385823</v>
+        <v>10.03852328933165</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>92.44624106312423</v>
+        <v>55.47616486653173</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.856081034780599</v>
+        <v>17.97272643372167</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.383265106445863</v>
+        <v>3.224649720217164</v>
       </c>
       <c r="D4">
-        <v>5.754733575496529</v>
+        <v>9.25061306240695</v>
       </c>
       <c r="E4">
-        <v>17.82816893579464</v>
+        <v>14.50273420706088</v>
       </c>
       <c r="F4">
-        <v>7.23215708185065</v>
+        <v>23.45879694974228</v>
       </c>
       <c r="G4">
-        <v>15.47768754602453</v>
+        <v>21.59711826213518</v>
       </c>
       <c r="H4">
-        <v>5.454723919584556</v>
+        <v>12.53990921554777</v>
       </c>
       <c r="I4">
-        <v>9.106917753078982</v>
+        <v>17.16127376091072</v>
       </c>
       <c r="J4">
-        <v>12.13791668091861</v>
+        <v>9.971630773580079</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>87.70882480963704</v>
+        <v>53.21265024487478</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.57479602781728</v>
+        <v>18.11985177749606</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.2950171443356</v>
+        <v>3.188248436766087</v>
       </c>
       <c r="D5">
-        <v>5.610646523999787</v>
+        <v>9.268867304283075</v>
       </c>
       <c r="E5">
-        <v>17.37741730823782</v>
+        <v>14.44277968521281</v>
       </c>
       <c r="F5">
-        <v>7.277150004816067</v>
+        <v>23.5833350129184</v>
       </c>
       <c r="G5">
-        <v>15.01159775542335</v>
+        <v>21.68665683490087</v>
       </c>
       <c r="H5">
-        <v>5.501681264444707</v>
+        <v>12.57380762152682</v>
       </c>
       <c r="I5">
-        <v>9.041053080690492</v>
+        <v>17.21085354530042</v>
       </c>
       <c r="J5">
-        <v>11.84206481117591</v>
+        <v>9.945318465558781</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85.74039783881489</v>
+        <v>52.25916909854443</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.541865771125551</v>
+        <v>18.18202748088657</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.280197946756839</v>
+        <v>3.182154094436265</v>
       </c>
       <c r="D6">
-        <v>5.58685840123005</v>
+        <v>9.271956632669101</v>
       </c>
       <c r="E6">
-        <v>17.30240187412006</v>
+        <v>14.43291195026449</v>
       </c>
       <c r="F6">
-        <v>7.288198942494839</v>
+        <v>23.60421140851266</v>
       </c>
       <c r="G6">
-        <v>14.93542058954623</v>
+        <v>21.70182575468127</v>
       </c>
       <c r="H6">
-        <v>5.50986647304849</v>
+        <v>12.57949824406054</v>
       </c>
       <c r="I6">
-        <v>9.031000792618519</v>
+        <v>17.21921236580119</v>
       </c>
       <c r="J6">
-        <v>11.79271884210812</v>
+        <v>9.941007150970988</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85.41110711868301</v>
+        <v>52.09897313604252</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.537568599753339</v>
+        <v>18.19248497890953</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.382086045183434</v>
+        <v>3.224162173321179</v>
       </c>
       <c r="D7">
-        <v>5.752780766026939</v>
+        <v>9.250855333619384</v>
       </c>
       <c r="E7">
-        <v>17.82210015464772</v>
+        <v>14.50191980860182</v>
       </c>
       <c r="F7">
-        <v>7.232515520807552</v>
+        <v>23.46046329854</v>
       </c>
       <c r="G7">
-        <v>15.47132011654854</v>
+        <v>21.5983055217509</v>
       </c>
       <c r="H7">
-        <v>5.455330391615179</v>
+        <v>12.54036223387208</v>
       </c>
       <c r="I7">
-        <v>9.10596921684183</v>
+        <v>17.16193393483566</v>
       </c>
       <c r="J7">
-        <v>12.13394078968803</v>
+        <v>9.971272053655229</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>87.68243810253887</v>
+        <v>53.1999168472071</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.574271785224902</v>
+        <v>18.12068134770277</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.807941741911949</v>
+        <v>3.402011349016229</v>
       </c>
       <c r="D8">
-        <v>6.509848926728343</v>
+        <v>9.166297326945704</v>
       </c>
       <c r="E8">
-        <v>20.10412602959655</v>
+        <v>14.81866801071761</v>
       </c>
       <c r="F8">
-        <v>8.752143544147241</v>
+        <v>22.85489890444464</v>
       </c>
       <c r="G8">
-        <v>18.01536710256327</v>
+        <v>21.18639505761549</v>
       </c>
       <c r="H8">
-        <v>5.280535866429516</v>
+        <v>12.37668478859577</v>
       </c>
       <c r="I8">
-        <v>10.15777415928726</v>
+        <v>16.9277359510538</v>
       </c>
       <c r="J8">
-        <v>13.615841085023</v>
+        <v>10.11307714195872</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>97.38794001058692</v>
+        <v>57.78483120405355</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.60446778831232</v>
+        <v>17.82340747399664</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.562595940859957</v>
+        <v>3.721598822270434</v>
       </c>
       <c r="D9">
-        <v>8.158954760392165</v>
+        <v>9.032186346995637</v>
       </c>
       <c r="E9">
-        <v>24.72538680393841</v>
+        <v>15.47877087814714</v>
       </c>
       <c r="F9">
-        <v>13.5170554400018</v>
+        <v>21.77227401486503</v>
       </c>
       <c r="G9">
-        <v>23.75909896553391</v>
+        <v>20.55133960773465</v>
       </c>
       <c r="H9">
-        <v>5.698907187927834</v>
+        <v>12.0884960080452</v>
       </c>
       <c r="I9">
-        <v>13.05510964838785</v>
+        <v>16.53742127643217</v>
       </c>
       <c r="J9">
-        <v>16.54758375620277</v>
+        <v>10.41925259367044</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>115.7771403994443</v>
+        <v>65.78596410415629</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.70385060754045</v>
+        <v>17.31294547681288</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.076754189283395</v>
+        <v>3.937102013111749</v>
       </c>
       <c r="D10">
-        <v>9.608197183136417</v>
+        <v>8.953916541184171</v>
       </c>
       <c r="E10">
-        <v>28.5333917416281</v>
+        <v>15.98298685313068</v>
       </c>
       <c r="F10">
-        <v>17.88592358262678</v>
+        <v>21.042452566011</v>
       </c>
       <c r="G10">
-        <v>28.73556518383697</v>
+        <v>20.2008836962199</v>
       </c>
       <c r="H10">
-        <v>6.895743721676016</v>
+        <v>11.8970989458039</v>
       </c>
       <c r="I10">
-        <v>15.44180897128252</v>
+        <v>16.29485282555924</v>
       </c>
       <c r="J10">
-        <v>18.90585834498869</v>
+        <v>10.65983042486402</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>129.7326531581046</v>
+        <v>71.0589622681975</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.32590281965449</v>
+        <v>16.98420226080889</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.306161927953694</v>
+        <v>4.030703274271977</v>
       </c>
       <c r="D11">
-        <v>10.38655842990256</v>
+        <v>8.922923242792677</v>
       </c>
       <c r="E11">
-        <v>30.51077680176262</v>
+        <v>16.21560836313866</v>
       </c>
       <c r="F11">
-        <v>20.20988556170736</v>
+        <v>20.72511807043771</v>
       </c>
       <c r="G11">
-        <v>31.32595399908312</v>
+        <v>20.06907395248145</v>
       </c>
       <c r="H11">
-        <v>7.525747218995739</v>
+        <v>11.81452661585146</v>
       </c>
       <c r="I11">
-        <v>16.65643195508371</v>
+        <v>16.19459101573437</v>
       </c>
       <c r="J11">
-        <v>20.11284038923311</v>
+        <v>10.77233765609649</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>136.5750537344394</v>
+        <v>73.32664054715393</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.67903241394848</v>
+        <v>16.84519523157907</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.393188933066531</v>
+        <v>4.065493785185661</v>
       </c>
       <c r="D12">
-        <v>10.71105555768719</v>
+        <v>8.911868723161641</v>
       </c>
       <c r="E12">
-        <v>31.32372425445512</v>
+        <v>16.30408834580793</v>
       </c>
       <c r="F12">
-        <v>21.16878359138803</v>
+        <v>20.60710522818806</v>
       </c>
       <c r="G12">
-        <v>32.38477607976778</v>
+        <v>20.02333399162906</v>
       </c>
       <c r="H12">
-        <v>7.784221007050296</v>
+        <v>11.78391285297322</v>
       </c>
       <c r="I12">
-        <v>17.14843598093435</v>
+        <v>16.1581172988394</v>
       </c>
       <c r="J12">
-        <v>20.60586151973384</v>
+        <v>10.81535398286433</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>139.3108111681817</v>
+        <v>74.16656358688364</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.23051962023916</v>
+        <v>16.79411700422427</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.374417364017175</v>
+        <v>4.058030365384582</v>
       </c>
       <c r="D13">
-        <v>10.63950519027234</v>
+        <v>8.914218874492773</v>
       </c>
       <c r="E13">
-        <v>31.14500771753357</v>
+        <v>16.28501637394759</v>
       </c>
       <c r="F13">
-        <v>20.95792670281577</v>
+        <v>20.63242476757003</v>
       </c>
       <c r="G13">
-        <v>32.15243931470103</v>
+        <v>20.03299605540539</v>
       </c>
       <c r="H13">
-        <v>7.727462416615537</v>
+        <v>11.79047682532789</v>
       </c>
       <c r="I13">
-        <v>17.04068574394669</v>
+        <v>16.16590544929339</v>
       </c>
       <c r="J13">
-        <v>20.49763123732001</v>
+        <v>10.80607176625939</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>138.7131927605321</v>
+        <v>73.98650621852184</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.10957711920185</v>
+        <v>16.80504745499605</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.313311129416253</v>
+        <v>4.033578710187591</v>
       </c>
       <c r="D14">
-        <v>10.41254231301723</v>
+        <v>8.922000003149561</v>
       </c>
       <c r="E14">
-        <v>30.57610614248496</v>
+        <v>16.22288024762448</v>
       </c>
       <c r="F14">
-        <v>20.28690955757096</v>
+        <v>20.71536561067384</v>
       </c>
       <c r="G14">
-        <v>31.41121713029674</v>
+        <v>20.0652260905688</v>
       </c>
       <c r="H14">
-        <v>7.54654260533631</v>
+        <v>11.81199483542937</v>
       </c>
       <c r="I14">
-        <v>16.69614302630252</v>
+        <v>16.19156012121439</v>
       </c>
       <c r="J14">
-        <v>20.15252711284034</v>
+        <v>10.77586853645374</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>136.7965470350979</v>
+        <v>73.39611791881522</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.72347279442895</v>
+        <v>16.84096144841273</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.275938731908255</v>
+        <v>4.018515705840212</v>
       </c>
       <c r="D15">
-        <v>10.27796982113825</v>
+        <v>8.926855550845641</v>
       </c>
       <c r="E15">
-        <v>30.23730751108721</v>
+        <v>16.18486882562705</v>
       </c>
       <c r="F15">
-        <v>19.88756578148074</v>
+        <v>20.76645136914134</v>
       </c>
       <c r="G15">
-        <v>30.9687511184851</v>
+        <v>20.08551746618093</v>
       </c>
       <c r="H15">
-        <v>7.438663916132112</v>
+        <v>11.82526073683606</v>
       </c>
       <c r="I15">
-        <v>16.48988709594697</v>
+        <v>16.20747012258114</v>
       </c>
       <c r="J15">
-        <v>19.94658244699007</v>
+        <v>10.75742102720649</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>135.644740185007</v>
+        <v>73.03204174355994</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.49279075487541</v>
+        <v>16.86316444081582</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.061725106630559</v>
+        <v>3.930894255680129</v>
       </c>
       <c r="D16">
-        <v>9.560574375197369</v>
+        <v>8.956036419668319</v>
       </c>
       <c r="E16">
-        <v>28.4110414877959</v>
+        <v>15.96784331837313</v>
       </c>
       <c r="F16">
-        <v>17.74284674432813</v>
+        <v>21.06349001390855</v>
       </c>
       <c r="G16">
-        <v>28.57492596539861</v>
+        <v>20.21007073503677</v>
       </c>
       <c r="H16">
-        <v>6.856801961271366</v>
+        <v>11.90258638326877</v>
       </c>
       <c r="I16">
-        <v>15.3659361280709</v>
+        <v>16.30161174239461</v>
       </c>
       <c r="J16">
-        <v>18.83080068593571</v>
+        <v>10.65253706762981</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>129.3003803643436</v>
+        <v>70.90813077442203</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.24177832819429</v>
+        <v>16.99350258223358</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.929548744930337</v>
+        <v>3.875993233328426</v>
       </c>
       <c r="D17">
-        <v>9.157107930361242</v>
+        <v>8.975132312912342</v>
       </c>
       <c r="E17">
-        <v>27.36751938625204</v>
+        <v>15.83548262057634</v>
       </c>
       <c r="F17">
-        <v>16.5278447798968</v>
+        <v>21.24950049586836</v>
       </c>
       <c r="G17">
-        <v>27.20501952543544</v>
+        <v>20.29369652695613</v>
       </c>
       <c r="H17">
-        <v>6.525423174912599</v>
+        <v>11.951180134392</v>
       </c>
       <c r="I17">
-        <v>14.71604391405464</v>
+        <v>16.36197755258038</v>
       </c>
       <c r="J17">
-        <v>18.18878084548464</v>
+        <v>10.58895920591247</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>125.5706587346498</v>
+        <v>69.57164421227009</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.52319166711625</v>
+        <v>17.07619159879498</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.853034731378737</v>
+        <v>3.843999261467098</v>
       </c>
       <c r="D18">
-        <v>8.935190180789853</v>
+        <v>8.986548704473078</v>
       </c>
       <c r="E18">
-        <v>26.7879499633895</v>
+        <v>15.75966263864309</v>
       </c>
       <c r="F18">
-        <v>15.85806469985471</v>
+        <v>21.35786603334093</v>
       </c>
       <c r="G18">
-        <v>26.44520229107685</v>
+        <v>20.34438281140936</v>
       </c>
       <c r="H18">
-        <v>6.342228963366993</v>
+        <v>11.97955255787388</v>
       </c>
       <c r="I18">
-        <v>14.35323766331427</v>
+        <v>16.39764482673924</v>
       </c>
       <c r="J18">
-        <v>17.83073647949001</v>
+        <v>10.55268131914382</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>123.4657206733147</v>
+        <v>68.7905946390124</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.12361886845257</v>
+        <v>17.12474134648136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.827029411596231</v>
+        <v>3.833095702731521</v>
       </c>
       <c r="D19">
-        <v>8.861557903078962</v>
+        <v>8.990487896109068</v>
       </c>
       <c r="E19">
-        <v>26.59471788036345</v>
+        <v>15.73404698207805</v>
       </c>
       <c r="F19">
-        <v>15.63572081944039</v>
+        <v>21.39479197872626</v>
       </c>
       <c r="G19">
-        <v>26.19219083969399</v>
+        <v>20.36198247582862</v>
       </c>
       <c r="H19">
-        <v>6.281333240288488</v>
+        <v>11.98923131136232</v>
       </c>
       <c r="I19">
-        <v>14.23203010926141</v>
+        <v>16.40988241547592</v>
       </c>
       <c r="J19">
-        <v>17.71112338094132</v>
+        <v>10.54044900926187</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>122.7585591117321</v>
+        <v>68.52402461236279</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.99038799424543</v>
+        <v>17.1413480233939</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.943666040634608</v>
+        <v>3.881880763163185</v>
       </c>
       <c r="D20">
-        <v>9.19894739104449</v>
+        <v>8.973054581316264</v>
       </c>
       <c r="E20">
-        <v>27.47633017832097</v>
+        <v>15.84954108150246</v>
       </c>
       <c r="F20">
-        <v>16.65403399666389</v>
+        <v>21.22955651070855</v>
       </c>
       <c r="G20">
-        <v>27.3477911832092</v>
+        <v>20.2845252165558</v>
       </c>
       <c r="H20">
-        <v>6.559896549270178</v>
+        <v>11.94596345332161</v>
       </c>
       <c r="I20">
-        <v>14.78402325221815</v>
+        <v>16.35545324610652</v>
       </c>
       <c r="J20">
-        <v>18.25588321511704</v>
+        <v>10.59569732983023</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>125.9631712938216</v>
+        <v>69.71519214852641</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.59818780384202</v>
+        <v>17.06728651377152</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.331244928518442</v>
+        <v>4.040778631878604</v>
       </c>
       <c r="D21">
-        <v>10.47823732879452</v>
+        <v>8.919695835397834</v>
       </c>
       <c r="E21">
-        <v>30.74109418071661</v>
+        <v>16.24112110579497</v>
       </c>
       <c r="F21">
-        <v>20.48146716249808</v>
+        <v>20.69094499446087</v>
       </c>
       <c r="G21">
-        <v>31.6264204344374</v>
+        <v>20.05564445970918</v>
       </c>
       <c r="H21">
-        <v>7.599044830911154</v>
+        <v>11.80565664092113</v>
       </c>
       <c r="I21">
-        <v>16.79630108138563</v>
+        <v>16.18398384375683</v>
       </c>
       <c r="J21">
-        <v>20.25270266958601</v>
+        <v>10.78472899600885</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>137.3546400959385</v>
+        <v>73.57003897041598</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.83561498323103</v>
+        <v>16.83036990808785</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.586684487577228</v>
+        <v>4.140808043735234</v>
       </c>
       <c r="D22">
-        <v>11.5066966571331</v>
+        <v>8.888807070486955</v>
       </c>
       <c r="E22">
-        <v>33.29216948833913</v>
+        <v>16.49928908764409</v>
       </c>
       <c r="F22">
-        <v>23.48917374391113</v>
+        <v>20.35151733036624</v>
       </c>
       <c r="G22">
-        <v>34.92319509713071</v>
+        <v>19.93047854069522</v>
       </c>
       <c r="H22">
-        <v>8.405693173150567</v>
+        <v>11.71777766374072</v>
       </c>
       <c r="I22">
-        <v>18.31832326371957</v>
+        <v>16.08064363013417</v>
       </c>
       <c r="J22">
-        <v>21.79239334027868</v>
+        <v>10.9106621048891</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>145.7537274402664</v>
+        <v>75.97987272826221</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.54962384244682</v>
+        <v>16.68465108824414</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.449606193844559</v>
+        <v>4.087774863628141</v>
       </c>
       <c r="D23">
-        <v>10.93164445611359</v>
+        <v>8.90492203883019</v>
       </c>
       <c r="E23">
-        <v>31.87287117541931</v>
+        <v>16.36131857146363</v>
       </c>
       <c r="F23">
-        <v>21.81668534977187</v>
+        <v>20.53150774845419</v>
       </c>
       <c r="G23">
-        <v>33.09694450999557</v>
+        <v>19.99498031029043</v>
       </c>
       <c r="H23">
-        <v>7.958337261068378</v>
+        <v>11.76432797867251</v>
       </c>
       <c r="I23">
-        <v>17.47799883179556</v>
+        <v>16.13498524371143</v>
       </c>
       <c r="J23">
-        <v>20.93788863409451</v>
+        <v>10.84323997477531</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>141.1338233209613</v>
+        <v>74.70370113555688</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.60100731200889</v>
+        <v>16.76157390857042</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.937285290749752</v>
+        <v>3.879220350970489</v>
       </c>
       <c r="D24">
-        <v>9.180001246155287</v>
+        <v>8.973992561196939</v>
       </c>
       <c r="E24">
-        <v>27.42707510212789</v>
+        <v>15.84318438598047</v>
       </c>
       <c r="F24">
-        <v>16.59689612671948</v>
+        <v>21.23856874927124</v>
       </c>
       <c r="G24">
-        <v>27.28315948653172</v>
+        <v>20.2886634558059</v>
       </c>
       <c r="H24">
-        <v>6.544288786960204</v>
+        <v>11.94832055980627</v>
       </c>
       <c r="I24">
-        <v>14.75325688044846</v>
+        <v>16.3583998913857</v>
       </c>
       <c r="J24">
-        <v>18.22551276964431</v>
+        <v>10.59265016876746</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>125.7855982383921</v>
+        <v>69.65033364270067</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.56424079208818</v>
+        <v>17.07130935789144</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.366395496288009</v>
+        <v>3.638436208122109</v>
       </c>
       <c r="D25">
-        <v>7.685013969968213</v>
+        <v>9.064978754121784</v>
       </c>
       <c r="E25">
-        <v>23.43508017217291</v>
+        <v>15.2964924236714</v>
       </c>
       <c r="F25">
-        <v>12.10086280945271</v>
+        <v>22.05376896226921</v>
       </c>
       <c r="G25">
-        <v>22.10463579464048</v>
+        <v>20.70354914201533</v>
       </c>
       <c r="H25">
-        <v>5.306947071798237</v>
+        <v>12.16291446112615</v>
       </c>
       <c r="I25">
-        <v>12.2410272782291</v>
+        <v>16.63541212502446</v>
       </c>
       <c r="J25">
-        <v>15.73734176038286</v>
+        <v>10.33356735903747</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>110.8072952646103</v>
+        <v>63.7277733032323</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.82217038543078</v>
+        <v>17.44306909787668</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_83/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.448290604152642</v>
+        <v>4.917680062720644</v>
       </c>
       <c r="D2">
-        <v>9.145498974178896</v>
+        <v>6.722994172031431</v>
       </c>
       <c r="E2">
-        <v>14.90729549833441</v>
+        <v>20.72476087292321</v>
       </c>
       <c r="F2">
-        <v>22.69786651950371</v>
+        <v>9.329681180882373</v>
       </c>
       <c r="G2">
-        <v>21.08608397561744</v>
+        <v>18.75024525196184</v>
       </c>
       <c r="H2">
-        <v>12.33454275493188</v>
+        <v>5.252638001218814</v>
       </c>
       <c r="I2">
-        <v>16.86886856337481</v>
+        <v>10.54199356853473</v>
       </c>
       <c r="J2">
-        <v>10.15345392877687</v>
+        <v>14.01463134388525</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>58.96029491922199</v>
+        <v>99.95418150214417</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.74769338902397</v>
+        <v>10.00852300437051</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.311900644384297</v>
+        <v>4.593140671021597</v>
       </c>
       <c r="D3">
-        <v>9.208199912639609</v>
+        <v>6.114676927333304</v>
       </c>
       <c r="E3">
-        <v>14.65333387160127</v>
+        <v>18.92957026337862</v>
       </c>
       <c r="F3">
-        <v>23.16121294231622</v>
+        <v>7.744118220707535</v>
       </c>
       <c r="G3">
-        <v>21.3898229122545</v>
+        <v>16.67108204372465</v>
       </c>
       <c r="H3">
-        <v>12.45924227866217</v>
+        <v>5.356812088303684</v>
       </c>
       <c r="I3">
-        <v>17.04477107235396</v>
+        <v>9.438819124538615</v>
       </c>
       <c r="J3">
-        <v>10.03852328933165</v>
+        <v>12.8563041238583</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>55.47616486653173</v>
+        <v>92.44624106312443</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.97272643372167</v>
+        <v>8.856081034780599</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.224649720217164</v>
+        <v>4.383265106445896</v>
       </c>
       <c r="D4">
-        <v>9.25061306240695</v>
+        <v>5.754733575496564</v>
       </c>
       <c r="E4">
-        <v>14.50273420706088</v>
+        <v>17.82816893579466</v>
       </c>
       <c r="F4">
-        <v>23.45879694974228</v>
+        <v>7.23215708185065</v>
       </c>
       <c r="G4">
-        <v>21.59711826213518</v>
+        <v>15.47768754602454</v>
       </c>
       <c r="H4">
-        <v>12.53990921554777</v>
+        <v>5.454723919584556</v>
       </c>
       <c r="I4">
-        <v>17.16127376091072</v>
+        <v>9.106917753079019</v>
       </c>
       <c r="J4">
-        <v>9.971630773580079</v>
+        <v>12.13791668091862</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>53.21265024487478</v>
+        <v>87.70882480963698</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.11985177749606</v>
+        <v>8.574796027817303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.188248436766087</v>
+        <v>4.295017144335632</v>
       </c>
       <c r="D5">
-        <v>9.268867304283075</v>
+        <v>5.610646523999821</v>
       </c>
       <c r="E5">
-        <v>14.44277968521281</v>
+        <v>17.37741730823788</v>
       </c>
       <c r="F5">
-        <v>23.5833350129184</v>
+        <v>7.277150004815935</v>
       </c>
       <c r="G5">
-        <v>21.68665683490087</v>
+        <v>15.01159775542338</v>
       </c>
       <c r="H5">
-        <v>12.57380762152682</v>
+        <v>5.501681264444634</v>
       </c>
       <c r="I5">
-        <v>17.21085354530042</v>
+        <v>9.041053080690405</v>
       </c>
       <c r="J5">
-        <v>9.945318465558781</v>
+        <v>11.84206481117594</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>52.25916909854443</v>
+        <v>85.74039783881501</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.18202748088657</v>
+        <v>8.541865771125453</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.182154094436265</v>
+        <v>4.280197946756855</v>
       </c>
       <c r="D6">
-        <v>9.271956632669101</v>
+        <v>5.586858401230034</v>
       </c>
       <c r="E6">
-        <v>14.43291195026449</v>
+        <v>17.30240187412011</v>
       </c>
       <c r="F6">
-        <v>23.60421140851266</v>
+        <v>7.288198942494839</v>
       </c>
       <c r="G6">
-        <v>21.70182575468127</v>
+        <v>14.93542058954614</v>
       </c>
       <c r="H6">
-        <v>12.57949824406054</v>
+        <v>5.509866473048478</v>
       </c>
       <c r="I6">
-        <v>17.21921236580119</v>
+        <v>9.031000792618514</v>
       </c>
       <c r="J6">
-        <v>9.941007150970988</v>
+        <v>11.79271884210814</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>52.09897313604252</v>
+        <v>85.41110711868309</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.19248497890953</v>
+        <v>8.537568599753339</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.224162173321179</v>
+        <v>4.382086045183418</v>
       </c>
       <c r="D7">
-        <v>9.250855333619384</v>
+        <v>5.75278076602697</v>
       </c>
       <c r="E7">
-        <v>14.50191980860182</v>
+        <v>17.82210015464774</v>
       </c>
       <c r="F7">
-        <v>23.46046329854</v>
+        <v>7.232515520807518</v>
       </c>
       <c r="G7">
-        <v>21.5983055217509</v>
+        <v>15.47132011654849</v>
       </c>
       <c r="H7">
-        <v>12.54036223387208</v>
+        <v>5.455330391615173</v>
       </c>
       <c r="I7">
-        <v>17.16193393483566</v>
+        <v>9.105969216841833</v>
       </c>
       <c r="J7">
-        <v>9.971272053655229</v>
+        <v>12.13394078968797</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>53.1999168472071</v>
+        <v>87.68243810253877</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.12068134770277</v>
+        <v>8.574271785224898</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.402011349016229</v>
+        <v>4.807941741911917</v>
       </c>
       <c r="D8">
-        <v>9.166297326945704</v>
+        <v>6.50984892672835</v>
       </c>
       <c r="E8">
-        <v>14.81866801071761</v>
+        <v>20.10412602959652</v>
       </c>
       <c r="F8">
-        <v>22.85489890444464</v>
+        <v>8.752143544147209</v>
       </c>
       <c r="G8">
-        <v>21.18639505761549</v>
+        <v>18.01536710256329</v>
       </c>
       <c r="H8">
-        <v>12.37668478859577</v>
+        <v>5.280535866429587</v>
       </c>
       <c r="I8">
-        <v>16.9277359510538</v>
+        <v>10.15777415928724</v>
       </c>
       <c r="J8">
-        <v>10.11307714195872</v>
+        <v>13.61584108502295</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>57.78483120405355</v>
+        <v>97.3879400105868</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.82340747399664</v>
+        <v>9.604467788312283</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.721598822270434</v>
+        <v>5.562595940859969</v>
       </c>
       <c r="D9">
-        <v>9.032186346995637</v>
+        <v>8.1589547603922</v>
       </c>
       <c r="E9">
-        <v>15.47877087814714</v>
+        <v>24.72538680393836</v>
       </c>
       <c r="F9">
-        <v>21.77227401486503</v>
+        <v>13.51705544000171</v>
       </c>
       <c r="G9">
-        <v>20.55133960773465</v>
+        <v>23.75909896553375</v>
       </c>
       <c r="H9">
-        <v>12.0884960080452</v>
+        <v>5.698907187927802</v>
       </c>
       <c r="I9">
-        <v>16.53742127643217</v>
+        <v>13.05510964838775</v>
       </c>
       <c r="J9">
-        <v>10.41925259367044</v>
+        <v>16.5475837562027</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65.78596410415629</v>
+        <v>115.7771403994441</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.31294547681288</v>
+        <v>12.70385060754034</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.937102013111749</v>
+        <v>6.076754189283477</v>
       </c>
       <c r="D10">
-        <v>8.953916541184171</v>
+        <v>9.608197183136454</v>
       </c>
       <c r="E10">
-        <v>15.98298685313068</v>
+        <v>28.53339174162822</v>
       </c>
       <c r="F10">
-        <v>21.042452566011</v>
+        <v>17.88592358262702</v>
       </c>
       <c r="G10">
-        <v>20.2008836962199</v>
+        <v>28.73556518383716</v>
       </c>
       <c r="H10">
-        <v>11.8970989458039</v>
+        <v>6.895743721676062</v>
       </c>
       <c r="I10">
-        <v>16.29485282555924</v>
+        <v>15.44180897128255</v>
       </c>
       <c r="J10">
-        <v>10.65983042486402</v>
+        <v>18.90585834498874</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>71.0589622681975</v>
+        <v>129.7326531581047</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.98420226080889</v>
+        <v>15.32590281965461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.030703274271977</v>
+        <v>6.306161927953735</v>
       </c>
       <c r="D11">
-        <v>8.922923242792677</v>
+        <v>10.38655842990269</v>
       </c>
       <c r="E11">
-        <v>16.21560836313866</v>
+        <v>30.51077680176274</v>
       </c>
       <c r="F11">
-        <v>20.72511807043771</v>
+        <v>20.20988556170744</v>
       </c>
       <c r="G11">
-        <v>20.06907395248145</v>
+        <v>31.3259539990831</v>
       </c>
       <c r="H11">
-        <v>11.81452661585146</v>
+        <v>7.525747218995734</v>
       </c>
       <c r="I11">
-        <v>16.19459101573437</v>
+        <v>16.65643195508368</v>
       </c>
       <c r="J11">
-        <v>10.77233765609649</v>
+        <v>20.11284038923312</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>73.32664054715393</v>
+        <v>136.5750537344394</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.84519523157907</v>
+        <v>16.67903241394848</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.065493785185661</v>
+        <v>6.393188933066512</v>
       </c>
       <c r="D12">
-        <v>8.911868723161641</v>
+        <v>10.71105555768725</v>
       </c>
       <c r="E12">
-        <v>16.30408834580793</v>
+        <v>31.3237242544552</v>
       </c>
       <c r="F12">
-        <v>20.60710522818806</v>
+        <v>21.16878359138795</v>
       </c>
       <c r="G12">
-        <v>20.02333399162906</v>
+        <v>32.38477607976792</v>
       </c>
       <c r="H12">
-        <v>11.78391285297322</v>
+        <v>7.784221007050239</v>
       </c>
       <c r="I12">
-        <v>16.1581172988394</v>
+        <v>17.14843598093432</v>
       </c>
       <c r="J12">
-        <v>10.81535398286433</v>
+        <v>20.60586151973386</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>74.16656358688364</v>
+        <v>139.3108111681818</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.79411700422427</v>
+        <v>17.2305196202391</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.058030365384582</v>
+        <v>6.374417364017193</v>
       </c>
       <c r="D13">
-        <v>8.914218874492773</v>
+        <v>10.63950519027226</v>
       </c>
       <c r="E13">
-        <v>16.28501637394759</v>
+        <v>31.14500771753353</v>
       </c>
       <c r="F13">
-        <v>20.63242476757003</v>
+        <v>20.95792670281567</v>
       </c>
       <c r="G13">
-        <v>20.03299605540539</v>
+        <v>32.15243931470128</v>
       </c>
       <c r="H13">
-        <v>11.79047682532789</v>
+        <v>7.727462416615459</v>
       </c>
       <c r="I13">
-        <v>16.16590544929339</v>
+        <v>17.04068574394666</v>
       </c>
       <c r="J13">
-        <v>10.80607176625939</v>
+        <v>20.49763123732002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>73.98650621852184</v>
+        <v>138.7131927605322</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.80504745499605</v>
+        <v>17.10957711920184</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.033578710187591</v>
+        <v>6.313311129416219</v>
       </c>
       <c r="D14">
-        <v>8.922000003149561</v>
+        <v>10.41254231301728</v>
       </c>
       <c r="E14">
-        <v>16.22288024762448</v>
+        <v>30.57610614248502</v>
       </c>
       <c r="F14">
-        <v>20.71536561067384</v>
+        <v>20.28690955757141</v>
       </c>
       <c r="G14">
-        <v>20.0652260905688</v>
+        <v>31.41121713029716</v>
       </c>
       <c r="H14">
-        <v>11.81199483542937</v>
+        <v>7.546542605336396</v>
       </c>
       <c r="I14">
-        <v>16.19156012121439</v>
+        <v>16.69614302630277</v>
       </c>
       <c r="J14">
-        <v>10.77586853645374</v>
+        <v>20.15252711284037</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>73.39611791881522</v>
+        <v>136.796547035098</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.84096144841273</v>
+        <v>16.72347279442923</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.018515705840212</v>
+        <v>6.275938731908283</v>
       </c>
       <c r="D15">
-        <v>8.926855550845641</v>
+        <v>10.27796982113825</v>
       </c>
       <c r="E15">
-        <v>16.18486882562705</v>
+        <v>30.23730751108718</v>
       </c>
       <c r="F15">
-        <v>20.76645136914134</v>
+        <v>19.88756578148069</v>
       </c>
       <c r="G15">
-        <v>20.08551746618093</v>
+        <v>30.96875111848502</v>
       </c>
       <c r="H15">
-        <v>11.82526073683606</v>
+        <v>7.438663916132112</v>
       </c>
       <c r="I15">
-        <v>16.20747012258114</v>
+        <v>16.48988709594691</v>
       </c>
       <c r="J15">
-        <v>10.75742102720649</v>
+        <v>19.94658244699001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>73.03204174355994</v>
+        <v>135.6447401850068</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.86316444081582</v>
+        <v>16.49279075487539</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.930894255680129</v>
+        <v>6.061725106630542</v>
       </c>
       <c r="D16">
-        <v>8.956036419668319</v>
+        <v>9.560574375197433</v>
       </c>
       <c r="E16">
-        <v>15.96784331837313</v>
+        <v>28.41104148779593</v>
       </c>
       <c r="F16">
-        <v>21.06349001390855</v>
+        <v>17.74284674432824</v>
       </c>
       <c r="G16">
-        <v>20.21007073503677</v>
+        <v>28.57492596539877</v>
       </c>
       <c r="H16">
-        <v>11.90258638326877</v>
+        <v>6.856801961271366</v>
       </c>
       <c r="I16">
-        <v>16.30161174239461</v>
+        <v>15.36593612807092</v>
       </c>
       <c r="J16">
-        <v>10.65253706762981</v>
+        <v>18.83080068593571</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70.90813077442203</v>
+        <v>129.3003803643434</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.99350258223358</v>
+        <v>15.24177832819433</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.875993233328426</v>
+        <v>5.929548744930368</v>
       </c>
       <c r="D17">
-        <v>8.975132312912342</v>
+        <v>9.157107930361255</v>
       </c>
       <c r="E17">
-        <v>15.83548262057634</v>
+        <v>27.36751938625212</v>
       </c>
       <c r="F17">
-        <v>21.24950049586836</v>
+        <v>16.52784477989677</v>
       </c>
       <c r="G17">
-        <v>20.29369652695613</v>
+        <v>27.20501952543546</v>
       </c>
       <c r="H17">
-        <v>11.951180134392</v>
+        <v>6.525423174912562</v>
       </c>
       <c r="I17">
-        <v>16.36197755258038</v>
+        <v>14.7160439140546</v>
       </c>
       <c r="J17">
-        <v>10.58895920591247</v>
+        <v>18.18878084548469</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>69.57164421227009</v>
+        <v>125.5706587346498</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.07619159879498</v>
+        <v>14.52319166711623</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.843999261467098</v>
+        <v>5.853034731378703</v>
       </c>
       <c r="D18">
-        <v>8.986548704473078</v>
+        <v>8.935190180789862</v>
       </c>
       <c r="E18">
-        <v>15.75966263864309</v>
+        <v>26.78794996338942</v>
       </c>
       <c r="F18">
-        <v>21.35786603334093</v>
+        <v>15.85806469985494</v>
       </c>
       <c r="G18">
-        <v>20.34438281140936</v>
+        <v>26.44520229107709</v>
       </c>
       <c r="H18">
-        <v>11.97955255787388</v>
+        <v>6.342228963367027</v>
       </c>
       <c r="I18">
-        <v>16.39764482673924</v>
+        <v>14.35323766331434</v>
       </c>
       <c r="J18">
-        <v>10.55268131914382</v>
+        <v>17.83073647948997</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>68.7905946390124</v>
+        <v>123.4657206733148</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.12474134648136</v>
+        <v>14.12361886845268</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.833095702731521</v>
+        <v>5.827029411596229</v>
       </c>
       <c r="D19">
-        <v>8.990487896109068</v>
+        <v>8.861557903078989</v>
       </c>
       <c r="E19">
-        <v>15.73404698207805</v>
+        <v>26.59471788036357</v>
       </c>
       <c r="F19">
-        <v>21.39479197872626</v>
+        <v>15.63572081944072</v>
       </c>
       <c r="G19">
-        <v>20.36198247582862</v>
+        <v>26.19219083969431</v>
       </c>
       <c r="H19">
-        <v>11.98923131136232</v>
+        <v>6.28133324028856</v>
       </c>
       <c r="I19">
-        <v>16.40988241547592</v>
+        <v>14.23203010926157</v>
       </c>
       <c r="J19">
-        <v>10.54044900926187</v>
+        <v>17.71112338094133</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>68.52402461236279</v>
+        <v>122.7585591117322</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.1413480233939</v>
+        <v>13.99038799424563</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.881880763163185</v>
+        <v>5.943666040634621</v>
       </c>
       <c r="D20">
-        <v>8.973054581316264</v>
+        <v>9.19894739104457</v>
       </c>
       <c r="E20">
-        <v>15.84954108150246</v>
+        <v>27.47633017832103</v>
       </c>
       <c r="F20">
-        <v>21.22955651070855</v>
+        <v>16.65403399666373</v>
       </c>
       <c r="G20">
-        <v>20.2845252165558</v>
+        <v>27.34779118320884</v>
       </c>
       <c r="H20">
-        <v>11.94596345332161</v>
+        <v>6.559896549270141</v>
       </c>
       <c r="I20">
-        <v>16.35545324610652</v>
+        <v>14.78402325221802</v>
       </c>
       <c r="J20">
-        <v>10.59569732983023</v>
+        <v>18.25588321511708</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>69.71519214852641</v>
+        <v>125.9631712938216</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.06728651377152</v>
+        <v>14.59818780384188</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.040778631878604</v>
+        <v>6.331244928518458</v>
       </c>
       <c r="D21">
-        <v>8.919695835397834</v>
+        <v>10.47823732879448</v>
       </c>
       <c r="E21">
-        <v>16.24112110579497</v>
+        <v>30.74109418071654</v>
       </c>
       <c r="F21">
-        <v>20.69094499446087</v>
+        <v>20.48146716249821</v>
       </c>
       <c r="G21">
-        <v>20.05564445970918</v>
+        <v>31.6264204344375</v>
       </c>
       <c r="H21">
-        <v>11.80565664092113</v>
+        <v>7.599044830911196</v>
       </c>
       <c r="I21">
-        <v>16.18398384375683</v>
+        <v>16.79630108138569</v>
       </c>
       <c r="J21">
-        <v>10.78472899600885</v>
+        <v>20.25270266958598</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>73.57003897041598</v>
+        <v>137.3546400959384</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.83036990808785</v>
+        <v>16.83561498323113</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.140808043735234</v>
+        <v>6.586684487577227</v>
       </c>
       <c r="D22">
-        <v>8.888807070486955</v>
+        <v>11.50669665713313</v>
       </c>
       <c r="E22">
-        <v>16.49928908764409</v>
+        <v>33.292169488339</v>
       </c>
       <c r="F22">
-        <v>20.35151733036624</v>
+        <v>23.48917374391087</v>
       </c>
       <c r="G22">
-        <v>19.93047854069522</v>
+        <v>34.92319509713032</v>
       </c>
       <c r="H22">
-        <v>11.71777766374072</v>
+        <v>8.405693173150466</v>
       </c>
       <c r="I22">
-        <v>16.08064363013417</v>
+        <v>18.31832326371943</v>
       </c>
       <c r="J22">
-        <v>10.9106621048891</v>
+        <v>21.79239334027855</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.97987272826221</v>
+        <v>145.7537274402661</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.68465108824414</v>
+        <v>18.54962384244664</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.087774863628141</v>
+        <v>6.449606193844559</v>
       </c>
       <c r="D23">
-        <v>8.90492203883019</v>
+        <v>10.93164445611369</v>
       </c>
       <c r="E23">
-        <v>16.36131857146363</v>
+        <v>31.87287117541944</v>
       </c>
       <c r="F23">
-        <v>20.53150774845419</v>
+        <v>21.8166853497722</v>
       </c>
       <c r="G23">
-        <v>19.99498031029043</v>
+        <v>33.09694450999589</v>
       </c>
       <c r="H23">
-        <v>11.76432797867251</v>
+        <v>7.958337261068421</v>
       </c>
       <c r="I23">
-        <v>16.13498524371143</v>
+        <v>17.47799883179572</v>
       </c>
       <c r="J23">
-        <v>10.84323997477531</v>
+        <v>20.93788863409452</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.70370113555688</v>
+        <v>141.1338233209614</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.76157390857042</v>
+        <v>17.60100731200906</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.879220350970489</v>
+        <v>5.937285290749735</v>
       </c>
       <c r="D24">
-        <v>8.973992561196939</v>
+        <v>9.180001246155314</v>
       </c>
       <c r="E24">
-        <v>15.84318438598047</v>
+        <v>27.42707510212798</v>
       </c>
       <c r="F24">
-        <v>21.23856874927124</v>
+        <v>16.59689612671952</v>
       </c>
       <c r="G24">
-        <v>20.2886634558059</v>
+        <v>27.28315948653175</v>
       </c>
       <c r="H24">
-        <v>11.94832055980627</v>
+        <v>6.544288786960195</v>
       </c>
       <c r="I24">
-        <v>16.3583998913857</v>
+        <v>14.75325688044849</v>
       </c>
       <c r="J24">
-        <v>10.59265016876746</v>
+        <v>18.22551276964438</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>69.65033364270067</v>
+        <v>125.7855982383923</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.07130935789144</v>
+        <v>14.56424079208822</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.638436208122109</v>
+        <v>5.366395496288068</v>
       </c>
       <c r="D25">
-        <v>9.064978754121784</v>
+        <v>7.685013969968211</v>
       </c>
       <c r="E25">
-        <v>15.2964924236714</v>
+        <v>23.43508017217298</v>
       </c>
       <c r="F25">
-        <v>22.05376896226921</v>
+        <v>12.10086280945264</v>
       </c>
       <c r="G25">
-        <v>20.70354914201533</v>
+        <v>22.10463579464039</v>
       </c>
       <c r="H25">
-        <v>12.16291446112615</v>
+        <v>5.306947071798208</v>
       </c>
       <c r="I25">
-        <v>16.63541212502446</v>
+        <v>12.24102727822905</v>
       </c>
       <c r="J25">
-        <v>10.33356735903747</v>
+        <v>15.73734176038292</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>63.7277733032323</v>
+        <v>110.8072952646102</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.44306909787668</v>
+        <v>11.82217038543071</v>
       </c>
     </row>
   </sheetData>
